--- a/00_BOM_LIST.xlsx
+++ b/00_BOM_LIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\09.python\06.PYAUTOGUI_SAP_BOM_download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1607E25-B684-486A-BAF1-E4EE382EFC9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59630A67-6E3A-463B-A9C5-A0EAB20B6779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{D2F1313C-99D2-4BDA-87CA-2316EBC42210}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D2F1313C-99D2-4BDA-87CA-2316EBC42210}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,45 +36,188 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>MLFB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5WY86A0CS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5WY86A5CS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5WY86A6CS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5WY86B7CS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5WY86H0BS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5WY86H4CS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5WY86M2AS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>A3C0633090091</t>
+  </si>
+  <si>
+    <t>A3C0633110091</t>
+  </si>
+  <si>
+    <t>A3C0633120091</t>
+  </si>
+  <si>
+    <t>A3C0633130091</t>
+  </si>
+  <si>
+    <t>A3C0633170091</t>
+  </si>
+  <si>
+    <t>A3C0633180091</t>
+  </si>
+  <si>
+    <t>A3C0633190091</t>
+  </si>
+  <si>
+    <t>A3C0633210091</t>
+  </si>
+  <si>
+    <t>A3C0633220091</t>
+  </si>
+  <si>
+    <t>A3C0633260091</t>
+  </si>
+  <si>
+    <t>A3C0773930091</t>
+  </si>
+  <si>
+    <t>A3C0773940091</t>
+  </si>
+  <si>
+    <t>A3C0773950091</t>
+  </si>
+  <si>
+    <t>A3C0773960091</t>
+  </si>
+  <si>
+    <t>A3C0773970091</t>
+  </si>
+  <si>
+    <t>A3C0773980091</t>
+  </si>
+  <si>
+    <t>A3C0773990091</t>
+  </si>
+  <si>
+    <t>A3C0774000091</t>
+  </si>
+  <si>
+    <t>A3C0774010091</t>
+  </si>
+  <si>
+    <t>A3C0774040091</t>
+  </si>
+  <si>
+    <t>A3C0774060091</t>
+  </si>
+  <si>
+    <t>A3C0774080091</t>
+  </si>
+  <si>
+    <t>A3C0791410091</t>
+  </si>
+  <si>
+    <t>A3C0791430091</t>
+  </si>
+  <si>
+    <t>A3C0791440091</t>
+  </si>
+  <si>
+    <t>A3C0791460091</t>
+  </si>
+  <si>
+    <t>A3C0791470091</t>
+  </si>
+  <si>
+    <t>A3C0791510091</t>
+  </si>
+  <si>
+    <t>A3C0791530091</t>
+  </si>
+  <si>
+    <t>A3C0791560091</t>
+  </si>
+  <si>
+    <t>A3C0791580091</t>
+  </si>
+  <si>
+    <t>A3C0791600091</t>
+  </si>
+  <si>
+    <t>A3C0791610091</t>
+  </si>
+  <si>
+    <t>A3C0791620091</t>
+  </si>
+  <si>
+    <t>A3C0791630091</t>
+  </si>
+  <si>
+    <t>A3C0791640091</t>
+  </si>
+  <si>
+    <t>A3C0791650091</t>
+  </si>
+  <si>
+    <t>A3C0832370091</t>
+  </si>
+  <si>
+    <t>A3C0832390091</t>
+  </si>
+  <si>
+    <t>A3C7006340091</t>
+  </si>
+  <si>
+    <t>A3C7006350091</t>
+  </si>
+  <si>
+    <t>A3C7006360091</t>
+  </si>
+  <si>
+    <t>A3C7006370091</t>
+  </si>
+  <si>
+    <t>A3C7006380091</t>
+  </si>
+  <si>
+    <t>A3C7006390091</t>
+  </si>
+  <si>
+    <t>A3C7006400091</t>
+  </si>
+  <si>
+    <t>A3C7006410091</t>
+  </si>
+  <si>
+    <t>A3C7006420091</t>
+  </si>
+  <si>
+    <t>A3C0931220091</t>
+  </si>
+  <si>
+    <t>A3C0931240091</t>
+  </si>
+  <si>
+    <t>A3C0975830091</t>
+  </si>
+  <si>
+    <t>A3C0975760091</t>
+  </si>
+  <si>
+    <t>A3C0975770091</t>
+  </si>
+  <si>
+    <t>A3C0975780091</t>
+  </si>
+  <si>
+    <t>A3C0975790091</t>
+  </si>
+  <si>
+    <t>A3C0975810091</t>
+  </si>
+  <si>
+    <t>A3C0975800091</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,28 +244,23 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,32 +311,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,8 +322,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,39 +336,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2 2" xfId="3" xr:uid="{9C06C0DF-436A-4A7B-92E7-5F77A9A96D77}"/>
     <cellStyle name="표준 3" xfId="1" xr:uid="{96A9D2C8-568B-4D1F-BEDE-F8C6A7741F56}"/>
     <cellStyle name="표준_작지_예xls (2)" xfId="2" xr:uid="{693DACCE-F30E-4D85-BE06-E1965BE88A76}"/>
   </cellStyles>
@@ -269,7 +369,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -568,217 +668,317 @@
   <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="8"/>
-    </row>
-    <row r="33" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="9"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A60" s="10"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
     </row>
   </sheetData>
